--- a/src/main/resources/static/excel/xlsx/dict_type.xlsx
+++ b/src/main/resources/static/excel/xlsx/dict_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2021173D-ADED-4F2E-A50C-1048427D7472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70D7C19-841B-4970-A423-C90196AA8804}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/static/excel/xlsx/dict_type.xlsx
+++ b/src/main/resources/static/excel/xlsx/dict_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70D7C19-841B-4970-A423-C90196AA8804}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75779EF0-2420-41FD-9CB1-DF1678CB40D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>sys_user_gender</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>505374112508588000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -52,6 +49,10 @@
   </si>
   <si>
     <t>用户性别a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +469,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,19 +497,19 @@
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
